--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3474.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3474.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.131944014841477</v>
+        <v>0.8077558279037476</v>
       </c>
       <c r="B1">
-        <v>1.887779775870702</v>
+        <v>1.259222507476807</v>
       </c>
       <c r="C1">
-        <v>5.885204152645802</v>
+        <v>4.532760143280029</v>
       </c>
       <c r="D1">
-        <v>4.832354413970734</v>
+        <v>4.09904146194458</v>
       </c>
       <c r="E1">
-        <v>1.548506163282568</v>
+        <v>0.8175625205039978</v>
       </c>
     </row>
   </sheetData>
